--- a/Yahoo_prueba/Diccionarios Cuentas/Diccionario de cuentas - Yahoo.xlsx
+++ b/Yahoo_prueba/Diccionarios Cuentas/Diccionario de cuentas - Yahoo.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2dcc2f9b2466f1ee/Escritorio/Master Big Data/TFM/Tesis/TFM/Yahoo_prueba/Diccionarios Cuentas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6027414-9BA1-4E26-9D2E-6D05ECFDE79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{D6027414-9BA1-4E26-9D2E-6D05ECFDE79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{553E07CA-6AFC-4DCD-AADB-D276089EEC93}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFC79D11-4ACE-4EEA-8965-8F6C2BE39588}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{EFC79D11-4ACE-4EEA-8965-8F6C2BE39588}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance" sheetId="1" r:id="rId1"/>
     <sheet name="Income" sheetId="2" r:id="rId2"/>
-    <sheet name="Cashflow" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
+    <sheet name="Cashflow" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja1!$A$1:$A$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>METRIC</t>
   </si>
@@ -101,6 +105,108 @@
   </si>
   <si>
     <t>MC</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>TOTAL_REVENUE</t>
+  </si>
+  <si>
+    <t>Breakdown</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Cost of Revenue</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Operating Expense</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Net Non Operating Interest Income Expense</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Tax Provision</t>
+  </si>
+  <si>
+    <t>Net Income Common Stockholders</t>
+  </si>
+  <si>
+    <t>Diluted NI Available to Com Stockholders</t>
+  </si>
+  <si>
+    <t>Basic EPS</t>
+  </si>
+  <si>
+    <t>Diluted EPS</t>
+  </si>
+  <si>
+    <t>Basic Average Shares</t>
+  </si>
+  <si>
+    <t>Diluted Average Shares</t>
+  </si>
+  <si>
+    <t>Total Operating Income as Reported</t>
+  </si>
+  <si>
+    <t>Total Expenses</t>
+  </si>
+  <si>
+    <t>Net Income from Continuing &amp; Discontinued Operation</t>
+  </si>
+  <si>
+    <t>Normalized Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Net Interest Income</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>Reconciled Cost of Revenue</t>
+  </si>
+  <si>
+    <t>Reconciled Depreciation</t>
+  </si>
+  <si>
+    <t>Net Income from Continuing Operation Net Minority Interest</t>
+  </si>
+  <si>
+    <t>Total Unusual Items Excluding Goodwill</t>
+  </si>
+  <si>
+    <t>Total Unusual Items</t>
+  </si>
+  <si>
+    <t>Normalized EBITDA</t>
+  </si>
+  <si>
+    <t>Tax Rate for Calcs</t>
+  </si>
+  <si>
+    <t>Tax Effect of Unusual Items</t>
   </si>
 </sst>
 </file>
@@ -474,7 +580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E91119-DA27-4B0F-9766-D8B69FAE7263}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -713,20 +821,283 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426E6E1-ACDA-42D2-842C-53043C155C8F}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -735,6 +1106,184 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866D267E-9513-4C2B-8897-3E537F034DE1}">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF33A69-4015-449A-AB70-A84AF03DE6E9}">
   <dimension ref="A1"/>
   <sheetViews>
